--- a/test/Server_time.xlsx
+++ b/test/Server_time.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t>Start time</t>
   </si>
@@ -22,64 +22,85 @@
     <t>End time</t>
   </si>
   <si>
-    <t>752954</t>
-  </si>
-  <si>
-    <t>950097</t>
-  </si>
-  <si>
-    <t>134402</t>
-  </si>
-  <si>
-    <t>316916</t>
-  </si>
-  <si>
-    <t>495364</t>
-  </si>
-  <si>
-    <t>686255</t>
-  </si>
-  <si>
-    <t>865050</t>
-  </si>
-  <si>
-    <t>39522</t>
-  </si>
-  <si>
-    <t>214437</t>
-  </si>
-  <si>
-    <t>388547</t>
-  </si>
-  <si>
-    <t>566814</t>
-  </si>
-  <si>
-    <t>748379</t>
-  </si>
-  <si>
-    <t>944376</t>
-  </si>
-  <si>
-    <t>126406</t>
-  </si>
-  <si>
-    <t>318013</t>
-  </si>
-  <si>
-    <t>491647</t>
-  </si>
-  <si>
-    <t>684482</t>
-  </si>
-  <si>
-    <t>870626</t>
-  </si>
-  <si>
-    <t>53254</t>
-  </si>
-  <si>
-    <t>233115</t>
+    <t>536.028</t>
+  </si>
+  <si>
+    <t>870.569</t>
+  </si>
+  <si>
+    <t>203.821</t>
+  </si>
+  <si>
+    <t>540.063</t>
+  </si>
+  <si>
+    <t>874.012</t>
+  </si>
+  <si>
+    <t>208.014</t>
+  </si>
+  <si>
+    <t>555.587</t>
+  </si>
+  <si>
+    <t>894.13</t>
+  </si>
+  <si>
+    <t>241.93</t>
+  </si>
+  <si>
+    <t>599.707</t>
+  </si>
+  <si>
+    <t>933.6</t>
+  </si>
+  <si>
+    <t>278.418</t>
+  </si>
+  <si>
+    <t>616.017</t>
+  </si>
+  <si>
+    <t>950.343</t>
+  </si>
+  <si>
+    <t>302.257</t>
+  </si>
+  <si>
+    <t>649.708</t>
+  </si>
+  <si>
+    <t>984.458</t>
+  </si>
+  <si>
+    <t>320.122</t>
+  </si>
+  <si>
+    <t>657.849</t>
+  </si>
+  <si>
+    <t>13.084</t>
+  </si>
+  <si>
+    <t>348.567</t>
+  </si>
+  <si>
+    <t>696.051</t>
+  </si>
+  <si>
+    <t>34.247</t>
+  </si>
+  <si>
+    <t>374.233</t>
+  </si>
+  <si>
+    <t>708.208</t>
+  </si>
+  <si>
+    <t>48.617</t>
+  </si>
+  <si>
+    <t>382.947</t>
   </si>
 </sst>
 </file>
@@ -411,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -581,6 +602,62 @@
       <c r="A21" t="s">
         <v>21</v>
       </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
